--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dll1</t>
   </si>
   <si>
     <t>Notch2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H2">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J2">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N2">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O2">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P2">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q2">
-        <v>13.072863297376</v>
+        <v>28.068098438461</v>
       </c>
       <c r="R2">
-        <v>117.655769676384</v>
+        <v>252.612885946149</v>
       </c>
       <c r="S2">
-        <v>0.002950384072470818</v>
+        <v>0.00830428273657521</v>
       </c>
       <c r="T2">
-        <v>0.002950384072470817</v>
+        <v>0.00830428273657521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H3">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J3">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P3">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q3">
-        <v>200.1229378155737</v>
+        <v>173.766569856539</v>
       </c>
       <c r="R3">
-        <v>1801.106440340163</v>
+        <v>1563.899128708851</v>
       </c>
       <c r="S3">
-        <v>0.04516527977353286</v>
+        <v>0.05141091867756284</v>
       </c>
       <c r="T3">
-        <v>0.04516527977353286</v>
+        <v>0.05141091867756284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H4">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J4">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N4">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P4">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q4">
-        <v>570.6077038186963</v>
+        <v>642.66430520995</v>
       </c>
       <c r="R4">
-        <v>5135.469334368267</v>
+        <v>5783.978746889551</v>
       </c>
       <c r="S4">
-        <v>0.1287791237986665</v>
+        <v>0.190139923688422</v>
       </c>
       <c r="T4">
-        <v>0.1287791237986665</v>
+        <v>0.190139923688422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,14 +714,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H5">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J5">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N5">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P5">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q5">
-        <v>298.7081120135273</v>
+        <v>81.99662159030601</v>
       </c>
       <c r="R5">
-        <v>2688.373008121746</v>
+        <v>737.9695943127541</v>
       </c>
       <c r="S5">
-        <v>0.06741473814534847</v>
+        <v>0.0242596815250162</v>
       </c>
       <c r="T5">
-        <v>0.06741473814534847</v>
+        <v>0.0242596815250162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H6">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J6">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N6">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P6">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q6">
-        <v>910.9872214175517</v>
+        <v>900.6660105078261</v>
       </c>
       <c r="R6">
-        <v>8198.884992757967</v>
+        <v>8105.994094570435</v>
       </c>
       <c r="S6">
-        <v>0.2055985844229153</v>
+        <v>0.2664728149959527</v>
       </c>
       <c r="T6">
-        <v>0.2055985844229153</v>
+        <v>0.2664728149959527</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.739123</v>
+        <v>9.324771</v>
       </c>
       <c r="H7">
-        <v>32.21736900000001</v>
+        <v>27.974313</v>
       </c>
       <c r="I7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="J7">
-        <v>0.5770918286832329</v>
+        <v>0.6278428513504979</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N7">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O7">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P7">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q7">
-        <v>563.5386188286237</v>
+        <v>294.918713022665</v>
       </c>
       <c r="R7">
-        <v>5071.847569457615</v>
+        <v>2654.268417203985</v>
       </c>
       <c r="S7">
-        <v>0.1271837184702991</v>
+        <v>0.08725522972696903</v>
       </c>
       <c r="T7">
-        <v>0.127183718470299</v>
+        <v>0.08725522972696903</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.27398</v>
       </c>
       <c r="I8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J8">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N8">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O8">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P8">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q8">
-        <v>0.1111730472533334</v>
+        <v>0.2748985331711111</v>
       </c>
       <c r="R8">
-        <v>1.00055742528</v>
+        <v>2.47408679854</v>
       </c>
       <c r="S8">
-        <v>2.509038612605376E-05</v>
+        <v>8.13320199915857E-05</v>
       </c>
       <c r="T8">
-        <v>2.509038612605376E-05</v>
+        <v>8.13320199915857E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.27398</v>
       </c>
       <c r="I9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J9">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P9">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q9">
         <v>1.701867166828889</v>
@@ -1013,10 +1013,10 @@
         <v>15.31680450146</v>
       </c>
       <c r="S9">
-        <v>0.0003840904374392748</v>
+        <v>0.0005035177628590438</v>
       </c>
       <c r="T9">
-        <v>0.0003840904374392748</v>
+        <v>0.0005035177628590438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.27398</v>
       </c>
       <c r="I10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J10">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N10">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P10">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q10">
-        <v>4.852509796571111</v>
+        <v>6.294244521444445</v>
       </c>
       <c r="R10">
-        <v>43.67258816914</v>
+        <v>56.64820069300001</v>
       </c>
       <c r="S10">
-        <v>0.001095151635081022</v>
+        <v>0.001862227547541698</v>
       </c>
       <c r="T10">
-        <v>0.001095151635081022</v>
+        <v>0.001862227547541698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.27398</v>
       </c>
       <c r="I11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J11">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N11">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P11">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q11">
-        <v>2.540246179924444</v>
+        <v>0.8030736763155557</v>
       </c>
       <c r="R11">
-        <v>22.86221561932</v>
+        <v>7.227663086840001</v>
       </c>
       <c r="S11">
-        <v>0.0005733022444217147</v>
+        <v>0.0002375989553067465</v>
       </c>
       <c r="T11">
-        <v>0.0005733022444217147</v>
+        <v>0.0002375989553067465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.27398</v>
       </c>
       <c r="I12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J12">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N12">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P12">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q12">
-        <v>7.747134128922222</v>
+        <v>8.821109335515557</v>
       </c>
       <c r="R12">
-        <v>69.72420716030001</v>
+        <v>79.38998401964001</v>
       </c>
       <c r="S12">
-        <v>0.001748432659420151</v>
+        <v>0.002609830734809864</v>
       </c>
       <c r="T12">
-        <v>0.001748432659420151</v>
+        <v>0.002609830734809864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.27398</v>
       </c>
       <c r="I13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="J13">
-        <v>0.004907651497632602</v>
+        <v>0.006149083425677313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N13">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O13">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P13">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q13">
-        <v>4.792393531162222</v>
+        <v>2.888429431455556</v>
       </c>
       <c r="R13">
-        <v>43.13154178046</v>
+        <v>25.9958648831</v>
       </c>
       <c r="S13">
-        <v>0.001081584135144385</v>
+        <v>0.0008545764051683762</v>
       </c>
       <c r="T13">
-        <v>0.001081584135144385</v>
+        <v>0.0008545764051683762</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H14">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J14">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.217312</v>
+        <v>3.010057666666667</v>
       </c>
       <c r="N14">
-        <v>3.651936000000001</v>
+        <v>9.030173</v>
       </c>
       <c r="O14">
-        <v>0.00511250363603795</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="P14">
-        <v>0.005112503636037949</v>
+        <v>0.01322668995706902</v>
       </c>
       <c r="Q14">
-        <v>9.468967298143999</v>
+        <v>1.102322248283</v>
       </c>
       <c r="R14">
-        <v>85.220705683296</v>
+        <v>9.920900234546998</v>
       </c>
       <c r="S14">
-        <v>0.002137029177441078</v>
+        <v>0.000326135225606014</v>
       </c>
       <c r="T14">
-        <v>0.002137029177441077</v>
+        <v>0.000326135225606014</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H15">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J15">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="P15">
-        <v>0.07826359260117714</v>
+        <v>0.08188501082233764</v>
       </c>
       <c r="Q15">
-        <v>144.9535201798163</v>
+        <v>6.824358136716999</v>
       </c>
       <c r="R15">
-        <v>1304.581681618347</v>
+        <v>61.41922323045299</v>
       </c>
       <c r="S15">
-        <v>0.03271422239020501</v>
+        <v>0.002019068003028312</v>
       </c>
       <c r="T15">
-        <v>0.03271422239020501</v>
+        <v>0.002019068003028312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H16">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J16">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.13354766666667</v>
+        <v>68.92011666666667</v>
       </c>
       <c r="N16">
-        <v>159.400643</v>
+        <v>206.76035</v>
       </c>
       <c r="O16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="P16">
-        <v>0.2231518753133371</v>
+        <v>0.3028463623969415</v>
       </c>
       <c r="Q16">
-        <v>413.3039231438136</v>
+        <v>25.23944268485</v>
       </c>
       <c r="R16">
-        <v>3719.735308294323</v>
+        <v>227.15498416365</v>
       </c>
       <c r="S16">
-        <v>0.09327759987958956</v>
+        <v>0.007467391089143966</v>
       </c>
       <c r="T16">
-        <v>0.09327759987958956</v>
+        <v>0.007467391089143966</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H17">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J17">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.81494466666667</v>
+        <v>8.793419333333334</v>
       </c>
       <c r="N17">
-        <v>83.444834</v>
+        <v>26.380258</v>
       </c>
       <c r="O17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="P17">
-        <v>0.1168180431512444</v>
+        <v>0.03863973520258026</v>
       </c>
       <c r="Q17">
-        <v>216.3609669898526</v>
+        <v>3.220264474318</v>
       </c>
       <c r="R17">
-        <v>1947.248702908674</v>
+        <v>28.982380268862</v>
       </c>
       <c r="S17">
-        <v>0.04883000276147425</v>
+        <v>0.0009527537727543932</v>
       </c>
       <c r="T17">
-        <v>0.04883000276147425</v>
+        <v>0.0009527537727543932</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H18">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J18">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>84.82882833333333</v>
+        <v>96.58853933333334</v>
       </c>
       <c r="N18">
-        <v>254.486485</v>
+        <v>289.765618</v>
       </c>
       <c r="O18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="P18">
-        <v>0.3562666705782951</v>
+        <v>0.4244259760587643</v>
       </c>
       <c r="Q18">
-        <v>659.8484212988983</v>
+        <v>35.371978754878</v>
       </c>
       <c r="R18">
-        <v>5938.635791690085</v>
+        <v>318.347808793902</v>
       </c>
       <c r="S18">
-        <v>0.1489196534959597</v>
+        <v>0.01046522311358776</v>
       </c>
       <c r="T18">
-        <v>0.1489196534959597</v>
+        <v>0.01046522311358776</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>7.778586999999999</v>
+        <v>0.366213</v>
       </c>
       <c r="H19">
-        <v>23.335761</v>
+        <v>1.098639</v>
       </c>
       <c r="I19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="J19">
-        <v>0.4180005198191344</v>
+        <v>0.02465735771115665</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,772 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.47529233333334</v>
+        <v>31.62744833333333</v>
       </c>
       <c r="N19">
-        <v>157.425877</v>
+        <v>94.882345</v>
       </c>
       <c r="O19">
-        <v>0.2203873147199083</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="P19">
-        <v>0.2203873147199082</v>
+        <v>0.1389762255623074</v>
       </c>
       <c r="Q19">
-        <v>408.1836267652663</v>
+        <v>11.582382736495</v>
       </c>
       <c r="R19">
-        <v>3673.652640887397</v>
+        <v>104.241444628455</v>
       </c>
       <c r="S19">
-        <v>0.09212201211446483</v>
+        <v>0.003426786507036206</v>
       </c>
       <c r="T19">
-        <v>0.09212201211446482</v>
+        <v>0.003426786507036206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.013987</v>
+      </c>
+      <c r="H20">
+        <v>15.041961</v>
+      </c>
+      <c r="I20">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J20">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.010057666666667</v>
+      </c>
+      <c r="N20">
+        <v>9.030173</v>
+      </c>
+      <c r="O20">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="P20">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="Q20">
+        <v>15.092390009917</v>
+      </c>
+      <c r="R20">
+        <v>135.831510089253</v>
+      </c>
+      <c r="S20">
+        <v>0.004465264153458839</v>
+      </c>
+      <c r="T20">
+        <v>0.004465264153458838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.013987</v>
+      </c>
+      <c r="H21">
+        <v>15.041961</v>
+      </c>
+      <c r="I21">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J21">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N21">
+        <v>55.904827</v>
+      </c>
+      <c r="O21">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="P21">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="Q21">
+        <v>93.435358605083</v>
+      </c>
+      <c r="R21">
+        <v>840.918227445747</v>
+      </c>
+      <c r="S21">
+        <v>0.02764396872666978</v>
+      </c>
+      <c r="T21">
+        <v>0.02764396872666977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.013987</v>
+      </c>
+      <c r="H22">
+        <v>15.041961</v>
+      </c>
+      <c r="I22">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J22">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>68.92011666666667</v>
+      </c>
+      <c r="N22">
+        <v>206.76035</v>
+      </c>
+      <c r="O22">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="P22">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="Q22">
+        <v>345.56456900515</v>
+      </c>
+      <c r="R22">
+        <v>3110.08112104635</v>
+      </c>
+      <c r="S22">
+        <v>0.1022394121587265</v>
+      </c>
+      <c r="T22">
+        <v>0.1022394121587264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.013987</v>
+      </c>
+      <c r="H23">
+        <v>15.041961</v>
+      </c>
+      <c r="I23">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J23">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.793419333333334</v>
+      </c>
+      <c r="N23">
+        <v>26.380258</v>
+      </c>
+      <c r="O23">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="P23">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="Q23">
+        <v>44.090090222882</v>
+      </c>
+      <c r="R23">
+        <v>396.810812005938</v>
+      </c>
+      <c r="S23">
+        <v>0.01304458069700279</v>
+      </c>
+      <c r="T23">
+        <v>0.01304458069700279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.013987</v>
+      </c>
+      <c r="H24">
+        <v>15.041961</v>
+      </c>
+      <c r="I24">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J24">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>96.58853933333334</v>
+      </c>
+      <c r="N24">
+        <v>289.765618</v>
+      </c>
+      <c r="O24">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="P24">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="Q24">
+        <v>484.2936805663221</v>
+      </c>
+      <c r="R24">
+        <v>4358.643125096898</v>
+      </c>
+      <c r="S24">
+        <v>0.143284079602932</v>
+      </c>
+      <c r="T24">
+        <v>0.143284079602932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.013987</v>
+      </c>
+      <c r="H25">
+        <v>15.041961</v>
+      </c>
+      <c r="I25">
+        <v>0.3375949816584589</v>
+      </c>
+      <c r="J25">
+        <v>0.3375949816584588</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.62744833333333</v>
+      </c>
+      <c r="N25">
+        <v>94.882345</v>
+      </c>
+      <c r="O25">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="P25">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="Q25">
+        <v>158.579614786505</v>
+      </c>
+      <c r="R25">
+        <v>1427.216533078545</v>
+      </c>
+      <c r="S25">
+        <v>0.04691767631966901</v>
+      </c>
+      <c r="T25">
+        <v>0.046917676319669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.167341</v>
+      </c>
+      <c r="I26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J26">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.010057666666667</v>
+      </c>
+      <c r="N26">
+        <v>9.030173</v>
+      </c>
+      <c r="O26">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="P26">
+        <v>0.01322668995706902</v>
+      </c>
+      <c r="Q26">
+        <v>0.1679020199992222</v>
+      </c>
+      <c r="R26">
+        <v>1.511118179993</v>
+      </c>
+      <c r="S26">
+        <v>4.967582143737478E-05</v>
+      </c>
+      <c r="T26">
+        <v>4.967582143737478E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.167341</v>
+      </c>
+      <c r="I27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J27">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N27">
+        <v>55.904827</v>
+      </c>
+      <c r="O27">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="P27">
+        <v>0.08188501082233764</v>
+      </c>
+      <c r="Q27">
+        <v>1.039463295000778</v>
+      </c>
+      <c r="R27">
+        <v>9.355169655007</v>
+      </c>
+      <c r="S27">
+        <v>0.0003075376522176627</v>
+      </c>
+      <c r="T27">
+        <v>0.0003075376522176627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.167341</v>
+      </c>
+      <c r="I28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J28">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>68.92011666666667</v>
+      </c>
+      <c r="N28">
+        <v>206.76035</v>
+      </c>
+      <c r="O28">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="P28">
+        <v>0.3028463623969415</v>
+      </c>
+      <c r="Q28">
+        <v>3.844387081038889</v>
+      </c>
+      <c r="R28">
+        <v>34.59948372935</v>
+      </c>
+      <c r="S28">
+        <v>0.001137407913107436</v>
+      </c>
+      <c r="T28">
+        <v>0.001137407913107436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.167341</v>
+      </c>
+      <c r="I29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J29">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>8.793419333333334</v>
+      </c>
+      <c r="N29">
+        <v>26.380258</v>
+      </c>
+      <c r="O29">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="P29">
+        <v>0.03863973520258026</v>
+      </c>
+      <c r="Q29">
+        <v>0.4904998615531111</v>
+      </c>
+      <c r="R29">
+        <v>4.414498753978</v>
+      </c>
+      <c r="S29">
+        <v>0.0001451202525001323</v>
+      </c>
+      <c r="T29">
+        <v>0.0001451202525001323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.167341</v>
+      </c>
+      <c r="I30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J30">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>96.58853933333334</v>
+      </c>
+      <c r="N30">
+        <v>289.765618</v>
+      </c>
+      <c r="O30">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="P30">
+        <v>0.4244259760587643</v>
+      </c>
+      <c r="Q30">
+        <v>5.387740920193111</v>
+      </c>
+      <c r="R30">
+        <v>48.489668281738</v>
+      </c>
+      <c r="S30">
+        <v>0.001594027611481923</v>
+      </c>
+      <c r="T30">
+        <v>0.001594027611481923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.05578033333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.167341</v>
+      </c>
+      <c r="I31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="J31">
+        <v>0.003755725854209311</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.62744833333333</v>
+      </c>
+      <c r="N31">
+        <v>94.882345</v>
+      </c>
+      <c r="O31">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="P31">
+        <v>0.1389762255623074</v>
+      </c>
+      <c r="Q31">
+        <v>1.764189610516111</v>
+      </c>
+      <c r="R31">
+        <v>15.877706494645</v>
+      </c>
+      <c r="S31">
+        <v>0.0005219566034647829</v>
+      </c>
+      <c r="T31">
+        <v>0.0005219566034647829</v>
       </c>
     </row>
   </sheetData>
